--- a/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_101.xlsx
+++ b/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_101.xlsx
@@ -526,15 +526,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -608,15 +608,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -632,13 +632,13 @@
         <v>4.21</v>
       </c>
       <c r="I3" t="n">
-        <v>2.3047</v>
+        <v>2.2284</v>
       </c>
       <c r="J3" t="n">
-        <v>23.21</v>
+        <v>24.67</v>
       </c>
       <c r="K3" t="n">
-        <v>960.21</v>
+        <v>986.89</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>2.17</v>
+        <v>2.24</v>
       </c>
       <c r="R3" t="n">
-        <v>1068.5863</v>
+        <v>1077.2378</v>
       </c>
     </row>
     <row r="4">
@@ -670,15 +670,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -694,13 +694,13 @@
         <v>4.13</v>
       </c>
       <c r="I4" t="n">
-        <v>2.1456</v>
+        <v>2.0697</v>
       </c>
       <c r="J4" t="n">
-        <v>2.89</v>
+        <v>2.8</v>
       </c>
       <c r="K4" t="n">
-        <v>111.22</v>
+        <v>104.04</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="R4" t="n">
-        <v>993.0855</v>
+        <v>969.5791</v>
       </c>
     </row>
     <row r="5">
@@ -732,15 +732,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -756,13 +756,13 @@
         <v>3.51</v>
       </c>
       <c r="I5" t="n">
-        <v>9.6615</v>
+        <v>9.2826</v>
       </c>
       <c r="J5" t="n">
-        <v>27.08</v>
+        <v>26.74</v>
       </c>
       <c r="K5" t="n">
-        <v>4697.17</v>
+        <v>4455.62</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>8.15</v>
+        <v>8.01</v>
       </c>
       <c r="R5" t="n">
-        <v>4017.6447</v>
+        <v>3853.4762</v>
       </c>
     </row>
     <row r="6">
@@ -794,15 +794,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -818,13 +818,13 @@
         <v>3.19</v>
       </c>
       <c r="I6" t="n">
-        <v>11.7041</v>
+        <v>11.2103</v>
       </c>
       <c r="J6" t="n">
-        <v>28.21</v>
+        <v>27.06</v>
       </c>
       <c r="K6" t="n">
-        <v>5928.48</v>
+        <v>5446.68</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>6.93</v>
+        <v>6.75</v>
       </c>
       <c r="R6" t="n">
-        <v>3416.2204</v>
+        <v>3245.6402</v>
       </c>
     </row>
     <row r="7">
@@ -856,15 +856,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -880,13 +880,13 @@
         <v>3.01</v>
       </c>
       <c r="I7" t="n">
-        <v>5.3292</v>
+        <v>5.1302</v>
       </c>
       <c r="J7" t="n">
-        <v>31.81</v>
+        <v>31.56</v>
       </c>
       <c r="K7" t="n">
-        <v>3043.17</v>
+        <v>2906.4</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>5.06</v>
+        <v>4.92</v>
       </c>
       <c r="R7" t="n">
-        <v>2495.7797</v>
+        <v>2365.5553</v>
       </c>
     </row>
     <row r="8">
@@ -918,15 +918,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -942,13 +942,13 @@
         <v>1.69</v>
       </c>
       <c r="I8" t="n">
-        <v>62.8329</v>
+        <v>60.6889</v>
       </c>
       <c r="J8" t="n">
-        <v>4.35</v>
+        <v>4.1</v>
       </c>
       <c r="K8" t="n">
-        <v>4912.24</v>
+        <v>4465.49</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>9.74</v>
+        <v>9.17</v>
       </c>
       <c r="R8" t="n">
-        <v>4799.3209</v>
+        <v>4407.2962</v>
       </c>
     </row>
     <row r="9">
@@ -980,15 +980,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1004,13 +1004,13 @@
         <v>0.84</v>
       </c>
       <c r="I9" t="n">
-        <v>16.8568</v>
+        <v>17.313</v>
       </c>
       <c r="J9" t="n">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="K9" t="n">
-        <v>596.08</v>
+        <v>557.99</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1030,10 +1030,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="R9" t="n">
-        <v>462.412</v>
+        <v>430.9958</v>
       </c>
     </row>
   </sheetData>
